--- a/nmf_topic_modeling_results.xlsx
+++ b/nmf_topic_modeling_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,239 +440,254 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ydinvoim käytö iaea raport the</t>
+          <t>suome energia hiilidioksid polto ilmastonmuutoks</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>huom turvallisuus katso viisas niinistö</t>
+          <t>selonteo uhk suome sotilaallis main</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>suome hallituks eu ihmis maailm</t>
+          <t>ydinvoim käytö iaea raport the</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>vaihd sähkö energia tuot valits</t>
+          <t>huom turvallisuus katso viisas niinistö</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ihmis ilmasto ilmastonmuutoks maapalo maailm</t>
+          <t>suome hallituks eu ihmis maailm</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>vastu kansalaist ylittäv suomi suome</t>
+          <t>vaihd sähkö energia tuot valits</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ihmis ilmasto suome maailm ilmastonmuutoks</t>
+          <t>ihmis ilmasto ilmastonmuutoks maapalo maailm</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>vastu kansalaist hallitusohjelm hallitus suomi</t>
+          <t>vastu kansalaist ylittäv suomi suome</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ihmis ilmastonmuutoks suome maailm osa</t>
+          <t>ihmis ilmasto suome maailm ilmastonmuutoks</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ilmasto ast maapalo muutos lämpenemin</t>
+          <t>vastu kansalaist hallitusohjelm hallitus suomi</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ilmasto ihmis ilmastonmuutoks agw talv</t>
+          <t>ihmis ilmastonmuutoks suome maailm osa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>näkyy palst keskustel record vaikutuks</t>
+          <t>ilmasto ast maapalo muutos lämpenemin</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ilmasto suome ihmis ilmastonmuutoks talv</t>
+          <t>ilmasto ihmis ilmastonmuutoks agw talv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>näkyy the in of and</t>
+          <t>näkyy palst keskustel record vaikutuks</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ilmasto suome ilmastonmuutoks ihmis talv</t>
+          <t>ilmasto suome ihmis ilmastonmuutoks talv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>näkyy lämmin ennätysl no jäätikö</t>
+          <t>näkyy the in of and</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ilmasto näkyy suome ast ilmastonmuutoks</t>
+          <t>ilmasto suome ilmastonmuutoks ihmis talv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>lopu maailm työpaik lähestyy ydinas</t>
+          <t>näkyy lämmin ennätysl no jäätikö</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>näkyy ilmasto suome talv lämpenemin</t>
+          <t>ilmasto näkyy suome ast ilmastonmuutoks</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>maailm automaatio lopu lopullis työpaik</t>
+          <t>lopu maailm työpaik lähestyy ydinas</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ihmis maailm ilmastonmuutoks suome ilmasto</t>
+          <t>näkyy ilmasto suome talv lämpenemin</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>näkyy lämpenemin sate ilmasto tulo</t>
+          <t>maailm automaatio lopu lopullis työpaik</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ilmasto suome ilmastonmuutoks ihmis näkyy</t>
+          <t>ihmis maailm ilmastonmuutoks suome ilmasto</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>natsism uusnats huuha politiik tieteellis</t>
+          <t>näkyy lämpenemin sate ilmasto tulo</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>suome ilmasto ihmis ilmastonmuutoks näkyy</t>
+          <t>ilmasto suome ilmastonmuutoks ihmis näkyy</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>trump president ihmist yhdysval usa</t>
+          <t>natsism uusnats huuha politiik tieteellis</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>suome ilmasto ilmastonmuutoks ihmis maailm</t>
+          <t>suome ilmasto ihmis ilmastonmuutoks näkyy</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>talouskasvu ikuis termostaat kasvihuonekaasu mere</t>
+          <t>trump president ihmist yhdysval usa</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>suome ilmasto ihmis maailm ilmastonmuutoks</t>
+          <t>suome ilmasto ilmastonmuutoks ihmis maailm</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>nostamin hillitsemis maitotuot vero ilmastonmuutoks</t>
+          <t>talouskasvu ikuis termostaat kasvihuonekaasu mere</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>suome ilmasto ihmis maailm ilmastonmuutoks</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>nostamin hillitsemis maitotuot vero ilmastonmuutoks</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>2020</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>ilmasto ilmastonmuutoks suome ihmis maailm</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>kenkäpar keng kuoma jalkin valmistaj</t>
         </is>
